--- a/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
+++ b/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slifer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slifer\Documents\GitHub\Projects\PLD-SPIE\5- Evaluation &amp; Choix\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2304" windowWidth="19200" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="1728" windowWidth="19200" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="7" r:id="rId1"/>
@@ -20,12 +20,11 @@
   <customWorkbookViews>
     <customWorkbookView name="doletle - Personal View" guid="{88AA637F-D619-4252-A2EA-F01866E49990}" mergeInterval="0" personalView="1" maximized="1" windowWidth="796" windowHeight="385" activeSheetId="2"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
   <si>
     <t>Instructions générales</t>
   </si>
@@ -159,21 +158,12 @@
     <t>Observations</t>
   </si>
   <si>
-    <t>Prix du marché</t>
-  </si>
-  <si>
-    <t>Selon les besoins du scénario</t>
-  </si>
-  <si>
     <t>% de l'inestissement</t>
   </si>
   <si>
     <t>A estimer selon besoins de fonctionnement</t>
   </si>
   <si>
-    <t>A estimer selon besoins identifiés</t>
-  </si>
-  <si>
     <t>A estimer</t>
   </si>
   <si>
@@ -334,6 +324,30 @@
   </si>
   <si>
     <t>Haute</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>http://leblogdumanagementdeprojet.com/2012/10/30/liceberg-du-retour-sur-investissement-roi-des-projets-erp-selon-jean-louis-tomas/</t>
+  </si>
+  <si>
+    <t>http://fr.viadeo.com/fr/groups/detaildiscussion/?containerId=0022b53crnsuxmnw&amp;forumId=0021u88m0kumshhd&amp;action=messageDetail&amp;messageId=0021tgeh6fxolvi6</t>
+  </si>
+  <si>
+    <t>http://www.sap.com/france/solution/sme/software/erp/compare.html</t>
+  </si>
+  <si>
+    <t>http://www.verif.com/bilans-gratuits/SPIE-SUD-EST-440055861/</t>
+  </si>
+  <si>
+    <t>4 ans</t>
+  </si>
+  <si>
+    <t>Nomadisme</t>
+  </si>
+  <si>
+    <t>Orange : 100euros par mois</t>
   </si>
 </sst>
 </file>
@@ -343,7 +357,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -383,6 +397,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -549,11 +569,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -683,9 +704,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1000,7 +1023,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$7</c:f>
+              <c:f>Data!$N$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,12 +1044,71 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$F$8:$F$12</c:f>
+              <c:f>Data!$M$7:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1041,30 +1123,66 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$G$8:$G$12</c:f>
+              <c:f>Data!$N$7:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6500</c:v>
+                  <c:v>207000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7475</c:v>
+                  <c:v>414000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8596.25</c:v>
+                  <c:v>621000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9885.6875</c:v>
+                  <c:v>828000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11368.540625</c:v>
+                  <c:v>1035000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1242000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1449000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1656000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1863000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2277000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1194,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$7</c:f>
+              <c:f>Data!$O$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1097,12 +1215,197 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3697938251139741E-2"/>
+                  <c:y val="1.890100784229766E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.4004351429755488E-4"/>
+                  <c:y val="2.3936254569387284E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.231886310263687E-3"/>
+                  <c:y val="3.4006748023566541E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.261785122254455E-2"/>
+                  <c:y val="2.8971501296476913E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4810833678684741E-2"/>
+                  <c:y val="3.1489124660021683E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0389038541234976E-3"/>
+                  <c:y val="3.6524371387111357E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$F$8:$F$12</c:f>
+              <c:f>Data!$M$7:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1117,30 +1420,66 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$H$8:$H$12</c:f>
+              <c:f>Data!$O$7:$O$17</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>531500</c:v>
+                  <c:v>532600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>131600</c:v>
+                  <c:v>665300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142600</c:v>
+                  <c:v>798000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142600</c:v>
+                  <c:v>930700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142600</c:v>
+                  <c:v>1063400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1196100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1328800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1461500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1594200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1726900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1859600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,11 +1491,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$7</c:f>
+              <c:f>Data!$P$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chiffre d'affaires généré</c:v>
+                  <c:v>Couts d'exploitation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1173,12 +1512,15 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Data!$F$8:$F$12</c:f>
+              <c:f>Data!$M$7:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
                 </c:pt>
@@ -1193,30 +1535,66 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Data!$I$8:$I$12</c:f>
+              <c:f>Data!$P$7:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>24500.000000000004</c:v>
+                  <c:v>132700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31500</c:v>
+                  <c:v>132700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38500</c:v>
+                  <c:v>132700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45500</c:v>
+                  <c:v>132700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52500</c:v>
+                  <c:v>132700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>132700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>139335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146301.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>153616.83749999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,24 +1602,56 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="44570784"/>
-        <c:axId val="44571344"/>
+        <c:axId val="229735392"/>
+        <c:axId val="229736512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44570784"/>
+        <c:axId val="229735392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1279,7 +1689,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44571344"/>
+        <c:crossAx val="229736512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44571344"/>
+        <c:axId val="229736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,6 +1717,37 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1338,497 +1779,15 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44570784"/>
+        <c:crossAx val="229735392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Resultat Net (Gains)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$M$7:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$N$7:$N$17</c:f>
-              <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>207000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>414000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>621000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>828000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1035000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1242000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1449000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1656000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1863000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2070000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2277000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$O$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Charge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$M$7:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$O$7:$O$17</c:f>
-              <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>531500</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>663100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>794700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>926300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1057900</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1189500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1321100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1452700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1584300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1715900</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1847500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Data!$P$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Couts d'exploitation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$M$7:$M$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2026</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$P$7:$P$17</c:f>
-              <c:numCache>
-                <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>138180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>145089</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>152343.45000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="229013440"/>
-        <c:axId val="229014000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="229013440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1843,10 +1802,10 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1862,69 +1821,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229014000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="229014000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;€&quot;* #,##0.00_);_(&quot;€&quot;* \(#,##0.00\);_(&quot;€&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="229013440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2003,46 +1900,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2598,568 +2455,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3174,7 +2483,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3506,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3533,7 +2842,7 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3589,17 +2898,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3650,16 +2959,14 @@
         <f>D15*C15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>44</v>
-      </c>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="24">
         <v>34900</v>
@@ -3672,7 +2979,7 @@
         <v>34900</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3696,7 +3003,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C18" s="24">
         <v>850</v>
@@ -3709,7 +3016,7 @@
         <v>170000</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,7 +3024,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C19" s="24">
         <v>150</v>
@@ -3730,7 +3037,7 @@
         <v>15000</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3738,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20" s="24">
         <f>600*20</f>
@@ -3752,7 +3059,7 @@
         <v>180000</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,15 +3067,17 @@
         <v>10</v>
       </c>
       <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>0</v>
+      </c>
       <c r="E21" s="26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="26" t="s">
-        <v>48</v>
-      </c>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -3793,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="27">
         <v>27000</v>
@@ -3802,17 +3111,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="27">
-        <f>D24*C24</f>
+        <f t="shared" ref="E24:E29" si="1">D24*C24</f>
         <v>27000</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="48"/>
       <c r="B25" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="27">
         <v>25000</v>
@@ -3821,17 +3130,17 @@
         <v>1</v>
       </c>
       <c r="E25" s="27">
-        <f t="shared" ref="E25:E29" si="1">D25*C25</f>
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C26" s="27">
         <v>27000</v>
@@ -3844,7 +3153,7 @@
         <v>27000</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3863,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,7 +3180,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="27">
         <v>2500</v>
@@ -3884,25 +3193,28 @@
         <v>52500</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C29" s="27">
-        <v>100</v>
+        <f>100*12</f>
+        <v>1200</v>
       </c>
       <c r="D29" s="25">
         <v>1</v>
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="F29" s="26"/>
+        <v>1200</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
@@ -3913,7 +3225,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3933,7 +3245,7 @@
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
       <c r="F32" s="44" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3941,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C33" s="27"/>
       <c r="D33" s="25"/>
@@ -3953,7 +3265,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="25"/>
@@ -3963,7 +3275,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="25"/>
@@ -3973,7 +3285,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="25"/>
@@ -3983,7 +3295,7 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="25"/>
@@ -3993,11 +3305,11 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" s="27"/>
       <c r="D38" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E38" s="26">
         <v>100000</v>
@@ -4007,11 +3319,11 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="25" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E39" s="26">
         <v>100000</v>
@@ -4021,7 +3333,7 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="25"/>
@@ -4035,7 +3347,9 @@
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="E41" s="26">
+        <v>1242000</v>
+      </c>
       <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,7 +3359,9 @@
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
       <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="E42" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="F42" s="46"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -4063,7 +3379,7 @@
       <c r="C44" s="15"/>
       <c r="D44" s="16"/>
       <c r="E44" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F44" s="21"/>
     </row>
@@ -4075,10 +3391,10 @@
       <c r="C45" s="30"/>
       <c r="D45" s="31"/>
       <c r="E45" s="35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -4089,10 +3405,10 @@
       <c r="C46" s="32"/>
       <c r="D46" s="33"/>
       <c r="E46" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -4103,10 +3419,10 @@
       <c r="C47" s="32"/>
       <c r="D47" s="33"/>
       <c r="E47" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -4117,7 +3433,7 @@
       <c r="C48" s="32"/>
       <c r="D48" s="33"/>
       <c r="E48" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F48" s="26"/>
     </row>
@@ -4129,7 +3445,7 @@
       <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F49" s="26"/>
     </row>
@@ -4141,7 +3457,7 @@
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F50" s="26"/>
     </row>
@@ -4153,10 +3469,10 @@
       <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,10 +3483,10 @@
       <c r="C52" s="34"/>
       <c r="D52" s="33"/>
       <c r="E52" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -4188,7 +3504,7 @@
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
       <c r="E54" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F54" s="21"/>
     </row>
@@ -4210,7 +3526,7 @@
       <c r="C56" s="32"/>
       <c r="D56" s="33"/>
       <c r="E56" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F56" s="26"/>
     </row>
@@ -4232,7 +3548,7 @@
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
       <c r="E58" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F58" s="26"/>
     </row>
@@ -4244,7 +3560,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
       <c r="E59" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F59" s="26"/>
     </row>
@@ -4256,7 +3572,7 @@
       <c r="C60" s="32"/>
       <c r="D60" s="33"/>
       <c r="E60" s="26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F60" s="26"/>
     </row>
@@ -4305,10 +3621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F4:P25"/>
+  <dimension ref="F4:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4327,35 +3643,35 @@
   <sheetData>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M4" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="M7" s="2">
         <v>2016</v>
@@ -4365,11 +3681,11 @@
       </c>
       <c r="O7" s="38">
         <f>H18+L18</f>
-        <v>531500</v>
+        <v>532600</v>
       </c>
       <c r="P7" s="38">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
@@ -4381,7 +3697,7 @@
       </c>
       <c r="H8" s="38">
         <f>H18+L18</f>
-        <v>531500</v>
+        <v>532600</v>
       </c>
       <c r="I8" s="38">
         <f>350000*7%</f>
@@ -4396,11 +3712,11 @@
       </c>
       <c r="O8" s="38">
         <f>O7+L18</f>
-        <v>663100</v>
+        <v>665300</v>
       </c>
       <c r="P8" s="39">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
@@ -4413,7 +3729,7 @@
       </c>
       <c r="H9" s="38">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
       <c r="I9" s="39">
         <f>350000*9%</f>
@@ -4428,11 +3744,11 @@
       </c>
       <c r="O9" s="38">
         <f>O8+L18</f>
-        <v>794700</v>
+        <v>798000</v>
       </c>
       <c r="P9" s="39">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
@@ -4440,7 +3756,7 @@
         <v>2018</v>
       </c>
       <c r="G10" s="39">
-        <f t="shared" ref="G10:G12" si="0">G9*15%+G9</f>
+        <f>G9*15%+G9</f>
         <v>8596.25</v>
       </c>
       <c r="H10" s="38">
@@ -4459,11 +3775,11 @@
       </c>
       <c r="O10" s="38">
         <f>O9+L18</f>
-        <v>926300</v>
+        <v>930700</v>
       </c>
       <c r="P10" s="39">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
@@ -4471,7 +3787,7 @@
         <v>2019</v>
       </c>
       <c r="G11" s="39">
-        <f t="shared" si="0"/>
+        <f>G10*15%+G10</f>
         <v>9885.6875</v>
       </c>
       <c r="H11" s="38">
@@ -4490,11 +3806,11 @@
       </c>
       <c r="O11" s="38">
         <f>O10+L18</f>
-        <v>1057900</v>
+        <v>1063400</v>
       </c>
       <c r="P11" s="39">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
@@ -4502,7 +3818,7 @@
         <v>2020</v>
       </c>
       <c r="G12" s="39">
-        <f t="shared" si="0"/>
+        <f>G11*15%+G11</f>
         <v>11368.540625</v>
       </c>
       <c r="H12" s="38">
@@ -4521,11 +3837,11 @@
       </c>
       <c r="O12" s="38">
         <f>O11+L18</f>
-        <v>1189500</v>
+        <v>1196100</v>
       </c>
       <c r="P12" s="41">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
@@ -4538,11 +3854,11 @@
       </c>
       <c r="O13" s="38">
         <f>O12+L18</f>
-        <v>1321100</v>
+        <v>1328800</v>
       </c>
       <c r="P13" s="41">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
@@ -4555,11 +3871,11 @@
       </c>
       <c r="O14" s="38">
         <f>O13+L18</f>
-        <v>1452700</v>
+        <v>1461500</v>
       </c>
       <c r="P14" s="41">
         <f>L18</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="15" spans="6:16" x14ac:dyDescent="0.25">
@@ -4572,11 +3888,11 @@
       </c>
       <c r="O15" s="41">
         <f>O14+L18</f>
-        <v>1584300</v>
+        <v>1594200</v>
       </c>
       <c r="P15" s="41">
-        <f t="shared" ref="P15:P17" si="1">P14*5%+P14</f>
-        <v>138180</v>
+        <f>P14*5%+P14</f>
+        <v>139335</v>
       </c>
     </row>
     <row r="16" spans="6:16" x14ac:dyDescent="0.25">
@@ -4589,11 +3905,11 @@
       </c>
       <c r="O16" s="41">
         <f>O15+L18</f>
-        <v>1715900</v>
+        <v>1726900</v>
       </c>
       <c r="P16" s="41">
-        <f t="shared" si="1"/>
-        <v>145089</v>
+        <f>P15*5%+P15</f>
+        <v>146301.75</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
@@ -4606,33 +3922,33 @@
       </c>
       <c r="O17" s="41">
         <f>O16+L18</f>
-        <v>1847500</v>
+        <v>1859600</v>
       </c>
       <c r="P17" s="41">
-        <f t="shared" si="1"/>
-        <v>152343.45000000001</v>
+        <f>P16*5%+P16</f>
+        <v>153616.83749999999</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H18" s="39">
         <f>SUM(Récap!E15:E21)</f>
         <v>399900</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="40">
         <f>SUM(Récap!E24:E30)</f>
-        <v>131600</v>
+        <v>132700</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L20" s="40">
         <f>SUM(Récap!E33:E40)</f>
@@ -4641,24 +3957,52 @@
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K29" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K29" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
+++ b/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1728" windowWidth="19200" windowHeight="8484"/>
+    <workbookView xWindow="0" yWindow="3456" windowWidth="19200" windowHeight="8484" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="112">
   <si>
     <t>Instructions générales</t>
   </si>
@@ -161,15 +161,9 @@
     <t>% de l'inestissement</t>
   </si>
   <si>
-    <t>A estimer selon besoins de fonctionnement</t>
-  </si>
-  <si>
     <t>A estimer</t>
   </si>
   <si>
-    <t>Possibilité de se limiter à l'énoncé des sources de gains (réduction de …, amélioration de …</t>
-  </si>
-  <si>
     <t>A estimer selon le plan de mise en œuvre</t>
   </si>
   <si>
@@ -245,18 +239,12 @@
     <t>Formation Personnel SPIE / jour</t>
   </si>
   <si>
-    <t>NB Personnes 20 ; NB Jours 15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prix PSP SAP ByD; Déploiement Hébérgé </t>
   </si>
   <si>
     <t>Consultants SAP : Mise en œuvre</t>
   </si>
   <si>
-    <t>200 Jours ; 850euros/jour</t>
-  </si>
-  <si>
     <t>Hypothèses</t>
   </si>
   <si>
@@ -341,13 +329,56 @@
     <t>http://www.verif.com/bilans-gratuits/SPIE-SUD-EST-440055861/</t>
   </si>
   <si>
-    <t>4 ans</t>
-  </si>
-  <si>
     <t>Nomadisme</t>
   </si>
   <si>
     <t>Orange : 100euros par mois</t>
+  </si>
+  <si>
+    <t>Tangibles : Réduction de la maintenance du SI</t>
+  </si>
+  <si>
+    <t>149*12 euros / utilisateur (annuels)</t>
+  </si>
+  <si>
+    <t>3,1 ans</t>
+  </si>
+  <si>
+    <t>Abonnement Nomade 4G</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Orange (forfait </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Business Everywhere pro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) : 21euros par mois * 200 tablettes</t>
+    </r>
+  </si>
+  <si>
+    <t>200 Jours ; 750euros/jour</t>
+  </si>
+  <si>
+    <t>CA SPIE SE : 350 000 000euros; CA Maintenance (7%) : 24500000€</t>
+  </si>
+  <si>
+    <t>1% du CA Maintenance</t>
+  </si>
+  <si>
+    <t>NB Personnes 600 ; NB Jours 3</t>
   </si>
 </sst>
 </file>
@@ -574,7 +605,7 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,6 +709,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -704,7 +742,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -982,6 +1019,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Retour sur</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> investissement : SAP ByD</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1152,37 +1219,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>207000</c:v>
+                  <c:v>480000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>414000</c:v>
+                  <c:v>960000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>621000</c:v>
+                  <c:v>1440000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>828000</c:v>
+                  <c:v>1920000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1035000</c:v>
+                  <c:v>2400000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1242000</c:v>
+                  <c:v>2880000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1449000</c:v>
+                  <c:v>3360000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1656000</c:v>
+                  <c:v>3840000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1863000</c:v>
+                  <c:v>4320000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2070000</c:v>
+                  <c:v>4800000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2277000</c:v>
+                  <c:v>5280000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,6 +1283,27 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.0389038541234976E-3"/>
+                  <c:y val="3.1489124660021725E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
@@ -1449,37 +1537,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>532600</c:v>
+                  <c:v>794900</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>665300</c:v>
+                  <c:v>1014900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>798000</c:v>
+                  <c:v>1234900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>930700</c:v>
+                  <c:v>1454900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1063400</c:v>
+                  <c:v>1674900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1196100</c:v>
+                  <c:v>1894900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1328800</c:v>
+                  <c:v>2114900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1461500</c:v>
+                  <c:v>2334900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1594200</c:v>
+                  <c:v>2554900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1726900</c:v>
+                  <c:v>2774900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1859600</c:v>
+                  <c:v>2994900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1564,37 +1652,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>132700</c:v>
+                  <c:v>220000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>139335</c:v>
+                  <c:v>231000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>146301.75</c:v>
+                  <c:v>242550</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>153616.83749999999</c:v>
+                  <c:v>254677.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,17 +1699,42 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="229735392"/>
-        <c:axId val="229736512"/>
+        <c:axId val="230321024"/>
+        <c:axId val="230318224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="229735392"/>
+        <c:axId val="230321024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Années</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1689,7 +1802,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229736512"/>
+        <c:crossAx val="230318224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1697,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229736512"/>
+        <c:axId val="230318224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,6 +1831,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Montant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -1779,7 +1917,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="229735392"/>
+        <c:crossAx val="230321024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2813,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2842,15 +2980,15 @@
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="3"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="37" t="s">
@@ -2898,17 +3036,17 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,7 +3104,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="24">
         <v>34900</v>
@@ -2979,7 +3117,7 @@
         <v>34900</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3003,20 +3141,20 @@
         <v>8</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" s="24">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="D18" s="25">
         <v>200</v>
       </c>
       <c r="E18" s="26">
         <f t="shared" si="0"/>
-        <v>170000</v>
+        <v>150000</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3024,20 +3162,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="24">
         <v>150</v>
       </c>
       <c r="D19" s="25">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E19" s="26">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3045,21 +3183,21 @@
         <v>9</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="24">
-        <f>600*20</f>
-        <v>12000</v>
+        <f>200*600</f>
+        <v>120000</v>
       </c>
       <c r="D20" s="25">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E20" s="26">
         <f t="shared" si="0"/>
-        <v>180000</v>
+        <v>360000</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,11 +3236,11 @@
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="27">
         <v>27000</v>
@@ -3111,17 +3249,17 @@
         <v>1</v>
       </c>
       <c r="E24" s="27">
-        <f t="shared" ref="E24:E29" si="1">D24*C24</f>
+        <f t="shared" ref="E24:E30" si="1">D24*C24</f>
         <v>27000</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="27">
         <v>25000</v>
@@ -3134,13 +3272,13 @@
         <v>25000</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C26" s="27">
         <v>27000</v>
@@ -3153,7 +3291,7 @@
         <v>27000</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3176,30 +3314,31 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="27">
-        <v>2500</v>
+        <f>149*12</f>
+        <v>1788</v>
       </c>
       <c r="D28" s="25">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>52500</v>
+        <v>89400</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="27">
         <f>100*12</f>
@@ -3213,389 +3352,424 @@
         <v>1200</v>
       </c>
       <c r="F29" s="26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="27">
+        <f>21*200*12</f>
+        <v>50400</v>
+      </c>
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>50400</v>
+      </c>
+      <c r="F30" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="F31" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>12</v>
-      </c>
+      <c r="A32" s="11"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="25"/>
       <c r="E32" s="26"/>
-      <c r="F32" s="44" t="s">
-        <v>47</v>
-      </c>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>85</v>
-      </c>
+      <c r="A33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="26">
-        <v>7000</v>
-      </c>
-      <c r="F33" s="45"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="47" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="B34" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="27"/>
+        <v>81</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>110</v>
+      </c>
       <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="45"/>
+      <c r="E34" s="26">
+        <f>245000</f>
+        <v>245000</v>
+      </c>
+      <c r="F34" s="48"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="27" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C35" s="27"/>
       <c r="D35" s="25"/>
       <c r="E35" s="26"/>
-      <c r="F35" s="45"/>
+      <c r="F35" s="48"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="25"/>
       <c r="E36" s="26"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="48"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="25"/>
       <c r="E37" s="26"/>
-      <c r="F37" s="45"/>
+      <c r="F37" s="48"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C38" s="27"/>
-      <c r="D38" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="26">
-        <v>100000</v>
-      </c>
-      <c r="F38" s="45"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="48"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="27"/>
       <c r="D39" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E39" s="26">
         <v>100000</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="48"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C40" s="27"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="45"/>
+      <c r="D40" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="26">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="48"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="27"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="27"/>
       <c r="D41" s="25"/>
-      <c r="E41" s="26">
+      <c r="E41" s="26"/>
+      <c r="F41" s="48"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26">
+        <v>35000</v>
+      </c>
+      <c r="F42" s="48"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26">
         <v>1242000</v>
       </c>
-      <c r="F41" s="45"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="F43" s="48"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="46"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-    </row>
-    <row r="44" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
+      <c r="F44" s="49"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>49</v>
-      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="35" t="s">
         <v>50</v>
       </c>
+      <c r="F47" s="23" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>42</v>
+      <c r="A48" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="33"/>
       <c r="E48" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>25</v>
+      <c r="A49" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="33"/>
       <c r="E49" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F49" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="33"/>
       <c r="E50" s="26" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F50" s="26"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>27</v>
+      <c r="A51" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="33"/>
       <c r="E51" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>51</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F51" s="26"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="A52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="33"/>
       <c r="E52" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="26"/>
+      <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
+        <v>30</v>
+      </c>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="23"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>34</v>
+      <c r="A58" s="18" t="s">
+        <v>31</v>
       </c>
       <c r="B58" s="32"/>
       <c r="C58" s="32"/>
       <c r="D58" s="33"/>
       <c r="E58" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F58" s="26"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>35</v>
+      <c r="A59" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="B59" s="32"/>
       <c r="C59" s="32"/>
       <c r="D59" s="33"/>
-      <c r="E59" s="26" t="s">
-        <v>99</v>
-      </c>
+      <c r="E59" s="26"/>
       <c r="F59" s="26"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
       <c r="D60" s="33"/>
       <c r="E60" s="26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F60" s="26"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>37</v>
+      <c r="A61" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B61" s="32"/>
       <c r="C61" s="32"/>
       <c r="D61" s="33"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="F61" s="26"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F32:F42"/>
+    <mergeCell ref="F33:F44"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -3623,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3634,58 +3808,59 @@
     <col min="7" max="7" width="19.77734375" customWidth="1"/>
     <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.88671875" customWidth="1"/>
     <col min="16" max="16" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M4" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="6:16" x14ac:dyDescent="0.25">
       <c r="M6" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M7" s="2">
         <v>2016</v>
       </c>
       <c r="N7" s="38">
-        <v>207000</v>
+        <f>L20</f>
+        <v>480000</v>
       </c>
       <c r="O7" s="38">
         <f>H18+L18</f>
-        <v>532600</v>
+        <v>794900</v>
       </c>
       <c r="P7" s="38">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
@@ -3697,7 +3872,7 @@
       </c>
       <c r="H8" s="38">
         <f>H18+L18</f>
-        <v>532600</v>
+        <v>794900</v>
       </c>
       <c r="I8" s="38">
         <f>350000*7%</f>
@@ -3708,15 +3883,15 @@
       </c>
       <c r="N8" s="39">
         <f>N7+L20</f>
-        <v>414000</v>
+        <v>960000</v>
       </c>
       <c r="O8" s="38">
         <f>O7+L18</f>
-        <v>665300</v>
+        <v>1014900</v>
       </c>
       <c r="P8" s="39">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
@@ -3729,7 +3904,7 @@
       </c>
       <c r="H9" s="38">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
       <c r="I9" s="39">
         <f>350000*9%</f>
@@ -3740,15 +3915,15 @@
       </c>
       <c r="N9" s="39">
         <f>N8+L20</f>
-        <v>621000</v>
+        <v>1440000</v>
       </c>
       <c r="O9" s="38">
         <f>O8+L18</f>
-        <v>798000</v>
+        <v>1234900</v>
       </c>
       <c r="P9" s="39">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
@@ -3771,15 +3946,15 @@
       </c>
       <c r="N10" s="39">
         <f>N9+L20</f>
-        <v>828000</v>
+        <v>1920000</v>
       </c>
       <c r="O10" s="38">
         <f>O9+L18</f>
-        <v>930700</v>
+        <v>1454900</v>
       </c>
       <c r="P10" s="39">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
@@ -3802,15 +3977,15 @@
       </c>
       <c r="N11" s="39">
         <f>N10+L20</f>
-        <v>1035000</v>
+        <v>2400000</v>
       </c>
       <c r="O11" s="38">
         <f>O10+L18</f>
-        <v>1063400</v>
+        <v>1674900</v>
       </c>
       <c r="P11" s="39">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
@@ -3833,15 +4008,15 @@
       </c>
       <c r="N12" s="39">
         <f>N11+L20</f>
-        <v>1242000</v>
+        <v>2880000</v>
       </c>
       <c r="O12" s="38">
         <f>O11+L18</f>
-        <v>1196100</v>
+        <v>1894900</v>
       </c>
       <c r="P12" s="41">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
@@ -3850,15 +4025,15 @@
       </c>
       <c r="N13" s="39">
         <f>N12+L20</f>
-        <v>1449000</v>
+        <v>3360000</v>
       </c>
       <c r="O13" s="38">
         <f>O12+L18</f>
-        <v>1328800</v>
+        <v>2114900</v>
       </c>
       <c r="P13" s="41">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
@@ -3867,15 +4042,15 @@
       </c>
       <c r="N14" s="39">
         <f>N13+L20</f>
-        <v>1656000</v>
+        <v>3840000</v>
       </c>
       <c r="O14" s="38">
         <f>O13+L18</f>
-        <v>1461500</v>
+        <v>2334900</v>
       </c>
       <c r="P14" s="41">
         <f>L18</f>
-        <v>132700</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="15" spans="6:16" x14ac:dyDescent="0.25">
@@ -3884,15 +4059,15 @@
       </c>
       <c r="N15" s="38">
         <f>N14+L20</f>
-        <v>1863000</v>
+        <v>4320000</v>
       </c>
       <c r="O15" s="41">
         <f>O14+L18</f>
-        <v>1594200</v>
+        <v>2554900</v>
       </c>
       <c r="P15" s="41">
         <f>P14*5%+P14</f>
-        <v>139335</v>
+        <v>231000</v>
       </c>
     </row>
     <row r="16" spans="6:16" x14ac:dyDescent="0.25">
@@ -3901,15 +4076,15 @@
       </c>
       <c r="N16" s="38">
         <f>L20+N15</f>
-        <v>2070000</v>
+        <v>4800000</v>
       </c>
       <c r="O16" s="41">
         <f>O15+L18</f>
-        <v>1726900</v>
+        <v>2774900</v>
       </c>
       <c r="P16" s="41">
         <f>P15*5%+P15</f>
-        <v>146301.75</v>
+        <v>242550</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
@@ -3918,81 +4093,81 @@
       </c>
       <c r="N17" s="38">
         <f>L20+N16</f>
-        <v>2277000</v>
+        <v>5280000</v>
       </c>
       <c r="O17" s="41">
         <f>O16+L18</f>
-        <v>1859600</v>
+        <v>2994900</v>
       </c>
       <c r="P17" s="41">
         <f>P16*5%+P16</f>
-        <v>153616.83749999999</v>
+        <v>254677.5</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="39">
         <f>SUM(Récap!E15:E21)</f>
-        <v>399900</v>
+        <v>574900</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="40">
-        <f>SUM(Récap!E24:E30)</f>
-        <v>132700</v>
+        <f>SUM(Récap!E24:E31)</f>
+        <v>220000</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L20" s="40">
-        <f>SUM(Récap!E33:E40)</f>
-        <v>207000</v>
+        <f>SUM(Récap!E34:E42)</f>
+        <v>480000</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G24" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G25" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="7:16" x14ac:dyDescent="0.25">
       <c r="K28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="7:16" x14ac:dyDescent="0.25">
-      <c r="K29" s="50" t="s">
-        <v>102</v>
+      <c r="K29" s="43" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="7:16" x14ac:dyDescent="0.25">
       <c r="K30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="7:16" x14ac:dyDescent="0.25">
       <c r="K31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
+++ b/5- Evaluation & Choix/SAP/Grille_d_evaluation_des_solutions_PLD SAP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3456" windowWidth="19200" windowHeight="8484" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="4032" windowWidth="19200" windowHeight="8484" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="7" r:id="rId1"/>
@@ -1112,6 +1112,48 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1385895841967122E-4"/>
+                  <c:y val="2.1418631205842378E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8295171985081216E-3"/>
+                  <c:y val="6.3128910245734979E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1219,37 +1261,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>480000</c:v>
+                  <c:v>475000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>960000</c:v>
+                  <c:v>950000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1440000</c:v>
+                  <c:v>1425000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1920000</c:v>
+                  <c:v>1900000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2400000</c:v>
+                  <c:v>2375000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2880000</c:v>
+                  <c:v>2850000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3360000</c:v>
+                  <c:v>3325000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3840000</c:v>
+                  <c:v>3800000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4320000</c:v>
+                  <c:v>4275000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4800000</c:v>
+                  <c:v>4750000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5280000</c:v>
+                  <c:v>5225000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,6 +1325,27 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.2206710180964224E-2"/>
+                  <c:y val="-4.6557199609867497E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
@@ -1537,37 +1600,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>794900</c:v>
+                  <c:v>884300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1014900</c:v>
+                  <c:v>1193700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1234900</c:v>
+                  <c:v>1503100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1454900</c:v>
+                  <c:v>1812500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1674900</c:v>
+                  <c:v>2121900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1894900</c:v>
+                  <c:v>2431300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2114900</c:v>
+                  <c:v>2740700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2334900</c:v>
+                  <c:v>3050100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2554900</c:v>
+                  <c:v>3359500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2774900</c:v>
+                  <c:v>3668900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2994900</c:v>
+                  <c:v>3978300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,37 +1715,37 @@
                 <c:formatCode>_("€"* #,##0.00_);_("€"* \(#,##0.00\);_("€"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220000</c:v>
+                  <c:v>309400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>231000</c:v>
+                  <c:v>324870</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>242550</c:v>
+                  <c:v>341113.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>254677.5</c:v>
+                  <c:v>358169.17499999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,11 +1762,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="230321024"/>
-        <c:axId val="230318224"/>
+        <c:axId val="231343104"/>
+        <c:axId val="231341984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="230321024"/>
+        <c:axId val="231343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1802,7 +1865,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230318224"/>
+        <c:crossAx val="231341984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1810,7 +1873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230318224"/>
+        <c:axId val="231341984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1917,7 +1980,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230321024"/>
+        <c:crossAx val="231343104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,7 +3017,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3325,11 +3388,11 @@
         <v>1788</v>
       </c>
       <c r="D28" s="25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>89400</v>
+        <v>178800</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>104</v>
@@ -3510,7 +3573,7 @@
       <c r="C42" s="27"/>
       <c r="D42" s="25"/>
       <c r="E42" s="26">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="F42" s="48"/>
     </row>
@@ -3782,7 +3845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -3797,8 +3860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3852,15 +3915,15 @@
       </c>
       <c r="N7" s="38">
         <f>L20</f>
-        <v>480000</v>
+        <v>475000</v>
       </c>
       <c r="O7" s="38">
         <f>H18+L18</f>
-        <v>794900</v>
+        <v>884300</v>
       </c>
       <c r="P7" s="38">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="8" spans="6:16" x14ac:dyDescent="0.25">
@@ -3872,7 +3935,7 @@
       </c>
       <c r="H8" s="38">
         <f>H18+L18</f>
-        <v>794900</v>
+        <v>884300</v>
       </c>
       <c r="I8" s="38">
         <f>350000*7%</f>
@@ -3883,15 +3946,15 @@
       </c>
       <c r="N8" s="39">
         <f>N7+L20</f>
-        <v>960000</v>
+        <v>950000</v>
       </c>
       <c r="O8" s="38">
         <f>O7+L18</f>
-        <v>1014900</v>
+        <v>1193700</v>
       </c>
       <c r="P8" s="39">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="9" spans="6:16" x14ac:dyDescent="0.25">
@@ -3904,7 +3967,7 @@
       </c>
       <c r="H9" s="38">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
       <c r="I9" s="39">
         <f>350000*9%</f>
@@ -3915,15 +3978,15 @@
       </c>
       <c r="N9" s="39">
         <f>N8+L20</f>
-        <v>1440000</v>
+        <v>1425000</v>
       </c>
       <c r="O9" s="38">
         <f>O8+L18</f>
-        <v>1234900</v>
+        <v>1503100</v>
       </c>
       <c r="P9" s="39">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="10" spans="6:16" x14ac:dyDescent="0.25">
@@ -3946,15 +4009,15 @@
       </c>
       <c r="N10" s="39">
         <f>N9+L20</f>
-        <v>1920000</v>
+        <v>1900000</v>
       </c>
       <c r="O10" s="38">
         <f>O9+L18</f>
-        <v>1454900</v>
+        <v>1812500</v>
       </c>
       <c r="P10" s="39">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="11" spans="6:16" x14ac:dyDescent="0.25">
@@ -3977,15 +4040,15 @@
       </c>
       <c r="N11" s="39">
         <f>N10+L20</f>
-        <v>2400000</v>
+        <v>2375000</v>
       </c>
       <c r="O11" s="38">
         <f>O10+L18</f>
-        <v>1674900</v>
+        <v>2121900</v>
       </c>
       <c r="P11" s="39">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.25">
@@ -4008,15 +4071,15 @@
       </c>
       <c r="N12" s="39">
         <f>N11+L20</f>
-        <v>2880000</v>
+        <v>2850000</v>
       </c>
       <c r="O12" s="38">
         <f>O11+L18</f>
-        <v>1894900</v>
+        <v>2431300</v>
       </c>
       <c r="P12" s="41">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.25">
@@ -4025,15 +4088,15 @@
       </c>
       <c r="N13" s="39">
         <f>N12+L20</f>
-        <v>3360000</v>
+        <v>3325000</v>
       </c>
       <c r="O13" s="38">
         <f>O12+L18</f>
-        <v>2114900</v>
+        <v>2740700</v>
       </c>
       <c r="P13" s="41">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.25">
@@ -4042,15 +4105,15 @@
       </c>
       <c r="N14" s="39">
         <f>N13+L20</f>
-        <v>3840000</v>
+        <v>3800000</v>
       </c>
       <c r="O14" s="38">
         <f>O13+L18</f>
-        <v>2334900</v>
+        <v>3050100</v>
       </c>
       <c r="P14" s="41">
         <f>L18</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="15" spans="6:16" x14ac:dyDescent="0.25">
@@ -4059,15 +4122,15 @@
       </c>
       <c r="N15" s="38">
         <f>N14+L20</f>
-        <v>4320000</v>
+        <v>4275000</v>
       </c>
       <c r="O15" s="41">
         <f>O14+L18</f>
-        <v>2554900</v>
+        <v>3359500</v>
       </c>
       <c r="P15" s="41">
         <f>P14*5%+P14</f>
-        <v>231000</v>
+        <v>324870</v>
       </c>
     </row>
     <row r="16" spans="6:16" x14ac:dyDescent="0.25">
@@ -4076,15 +4139,15 @@
       </c>
       <c r="N16" s="38">
         <f>L20+N15</f>
-        <v>4800000</v>
+        <v>4750000</v>
       </c>
       <c r="O16" s="41">
         <f>O15+L18</f>
-        <v>2774900</v>
+        <v>3668900</v>
       </c>
       <c r="P16" s="41">
         <f>P15*5%+P15</f>
-        <v>242550</v>
+        <v>341113.5</v>
       </c>
     </row>
     <row r="17" spans="7:16" x14ac:dyDescent="0.25">
@@ -4093,15 +4156,15 @@
       </c>
       <c r="N17" s="38">
         <f>L20+N16</f>
-        <v>5280000</v>
+        <v>5225000</v>
       </c>
       <c r="O17" s="41">
         <f>O16+L18</f>
-        <v>2994900</v>
+        <v>3978300</v>
       </c>
       <c r="P17" s="41">
         <f>P16*5%+P16</f>
-        <v>254677.5</v>
+        <v>358169.17499999999</v>
       </c>
     </row>
     <row r="18" spans="7:16" x14ac:dyDescent="0.25">
@@ -4118,7 +4181,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="40">
         <f>SUM(Récap!E24:E31)</f>
-        <v>220000</v>
+        <v>309400</v>
       </c>
     </row>
     <row r="20" spans="7:16" x14ac:dyDescent="0.25">
@@ -4127,7 +4190,7 @@
       </c>
       <c r="L20" s="40">
         <f>SUM(Récap!E34:E42)</f>
-        <v>480000</v>
+        <v>475000</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.25">
